--- a/MyRestService/src/test/resources/paport_16_04_2019.xlsx
+++ b/MyRestService/src/test/resources/paport_16_04_2019.xlsx
@@ -29,13 +29,13 @@
     <t>Started on:</t>
   </si>
   <si>
-    <t>Tue Apr 16 20:11:16 EEST 2019</t>
+    <t>Tue Apr 16 22:50:07 EEST 2019</t>
   </si>
   <si>
     <t>Total time:</t>
   </si>
   <si>
-    <t>2 seconds (2215 ms)</t>
+    <t>2 seconds (2971 ms)</t>
   </si>
   <si>
     <t>Included groups:</t>
